--- a/heatPoints.xlsx
+++ b/heatPoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smart2\Documents\Reforma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Reforma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA3D616A-61C6-489A-9BF2-85B990067891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293C69F0-F013-459C-BD20-7B5745EBB60D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-6510" yWindow="4350" windowWidth="11835" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="heatPoints" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -299,12 +299,120 @@
   </si>
   <si>
     <t>R: Ia - the thermo element is located above the attachment point of the short head of the biceps brachii (caput breve m.biceps brachii) to the processus coracoideus scapula, the anterior surface of the articulation humeri and the joint-humeral joint, beak-acromial and coracoid-like brachial ligament (ligg.glenohurale superius, mediale, inferius, lig.coracoacromeale, lig.coracohumorale), tendon of the biceps tendon of the shoulder (tendo m.brahii (caput breve)), capsule of the joint (capsula articularis)</t>
+  </si>
+  <si>
+    <t>hintUZ0</t>
+  </si>
+  <si>
+    <t>L:Ia - isitish elementi biceps brachii muskulining qisqa boshini (caput breve m.biceps brachii) scapula ning qarg'ish ko'rsatkichi (processus coracoideus scapula) ga mahkamlaish joyi, bazoq suyagi old tomoqiga (articulation humeri) va unga tegishli suyoq-bazoq, qarg'ish-akromial va qarg'ish-bazoq bog'lar (ligg.glenohurale superius, mediale, inferius, lig.coracoacromeale, lig.coracohumorale), biceps brachii muskulining suyagini (tendo m.brahii (caput breve)), va suyak qo'pi (capsula articularis) ustida joylashgan.</t>
+  </si>
+  <si>
+    <t>R:Ia - isitish elementi biceps brachii muskulining qisqa boshini (caput breve m.biceps brachii) scapula ning qarg'ish ko'rsatkichi (processus coracoideus scapula) ga mahkamlaish joyi, bazoq suyagi old tomoqiga (articulation humeri) va unga tegishli suyoq-bazoq, qarg'ish-akromial va qarg'ish-bazoq bog'lar (ligg.glenohurale superius, mediale, inferius, lig.coracoacromeale, lig.coracohumorale), biceps brachii muskulining suyagini (tendo m.brahii (caput breve)), va suyak qo'pi (capsula articularis) ustida joylashgan.</t>
+  </si>
+  <si>
+    <t>L:IIa - isitish elementi luchezapyastniy suyagi (articulatio radiocarpea) ning old tomoqi va distal radioulnar suyagi (articulatio radioulnaric distalis) va ular bilan qo'shilgan palmar radiocarpal va ulnocarpal ligaments (ligg.radiocarpeum palmare, ulnocarpeum palmare), flexor carpi ulnaris, flexor carpi radialis, digitorum superfacialis muskulining suyaklari, flexor digitorum profundus muskulining bryushka, va suyak qo'pi (capsula articularis), hamda umumiy barmoq eguvchi muskulining qo'lqoplar (vagina communis mm.flexorum), va long flexor thumb tendon (vagina tendinis m.flexoris policis longi) ustida joylashgan.</t>
+  </si>
+  <si>
+    <t>R:IIa - isitish elementi luchezapyastniy suyagi (articulatio radiocarpea) ning old tomoqi va distal radioulnar suyagi (articulatio radioulnaric distalis) va ular bilan qo'shilgan palmar radiocarpal va ulnocarpal ligaments (ligg.radiocarpeum palmare, ulnocarpeum palmare), flexor carpi ulnaris, flexor carpi radialis, digitorum superfacialis muskulining suyaklari, flexor digitorum profundus muskulining bryushka, va suyak qo'pi (capsula articularis), hamda umumiy barmoq eguvchi muskulining qo'lqoplar (vagina communis mm.flexorum), va long flexor thumb tendon (vagina tendinis m.flexoris policis longi) ustida joylashgan.</t>
+  </si>
+  <si>
+    <t>R:III - isitish elementi mm.pectoralis major muskulining bryushkasini (mm.pectoralis major) clavicle ning medial chegarasiga (corpus claviculare) sternoclavicular suyak (articulatio sternoclavicularis) hududida mahkamlaish joyi, va ular bilan qo'shilgan sternoclavicular, costaclavicular va interclavicular ligaments (lig.sternoclavicularis, lig.costaclaviculare, lig.interclaviculare), va suyak qo'pi (capsula articularis) ustida joylashgan.</t>
+  </si>
+  <si>
+    <t>L:IV - isitish elementi yuqoridagi joylarga joylashtirilgan: juft boshli yotak miyasi (m.quadriceps femoris), yotakning yengil miyasi (m.sartorius), katta mo'ynak miyasi (m.gluteus maximus), o'rtacha mo'ynak miyasi (m.gluteus medius), kichik mo'ynak miyasi (m.gluteus minimus), yotakning kvadrat miyasi (m.qudratus femoris), keng fascia chiziqlash miyasi (m.tensor fasciae latae), hamda tug'irgan-sorilgan jipsni yuzasi (articulatio coxae) va ularga yaqin yotilgan kesimligi (lig.transversum acetabuli), tashqari-yotak bog'i (lig.iliofemorale), tashqari-sorilgan bog'i (lig.pubofemorale), yotilgan-sorilgan bog'i (lig.ischiofemorale), aylana maydoni (zona orbicularis), yotak boshining bog'i (lig.capitis femoris), va boshqa bog'lar va sumkalar.</t>
+  </si>
+  <si>
+    <t>R:IV - isitish elementi yuqoridagi joylarga joylashtirilgan: juft boshli yotak miyasi (m.quadriceps femoris), yotakning yengil miyasi (m.sartorius), katta mo'ynak miyasi (m.gluteus maximus), o'rtacha mo'ynak miyasi (m.gluteus medius), kichik mo'ynak miyasi (m.gluteus minimus), yotakning kvadrat miyasi (m.qudratus femoris), keng fascia chiziqlash miyasi (m.tensor fasciae latae), hamda tug'irgan-sorilgan jipsni yuzasi (articulatio coxae) va ularga yaqin yotilgan kesimligi (lig.transversum acetabuli), tashqari-yotak bog'i (lig.iliofemorale), tashqari-sorilgan bog'i (lig.pubofemorale), yotilgan-sorilgan bog'i (lig.ischiofemorale), aylana maydoni (zona orbicularis), yotak boshining bog'i (lig.capitis femoris), va boshqa bog'lar va sumkalar.</t>
+  </si>
+  <si>
+    <t>L:Va - isitish elementi yuqoridagi joylarga joylashtirilgan: juft boshli yotak miyasi suhqo'yg'usi (m.quadriceps femoris) tepaga pastkolga (patella), yotakning yengil miyasi suhqo'yg'usi (m.sartorius), tizoq miyasi (m.articularis genus), jips kapsulasi (capsula articularis), hamda turli sumkalar.</t>
+  </si>
+  <si>
+    <t>R:Va - isitish elementi yuqoridagi joylarga joylashtirilgan: juft boshli yotak miyasi suhqo'yg'usi (m.quadriceps femoris) tepaga pastkolga (patella), yotakning yengil miyasi suhqo'yg'usi (m.sartorius), tizoq miyasi (m.articularis genus), jips kapsulasi (capsula articularis), hamda turli sumkalar.</t>
+  </si>
+  <si>
+    <t>L:VIIa - isitish elementi golenostop sug'orchasi (articulatio tibiocruralis) ning medial yuzasi va unga yaqin medial (deltoideum) bog' (lig.mediale), tibionavicular bog' (lig.tibionavicularis), old va orqa tibiotalar bog'lar (lig.tibiotalaris anterius et posterius), old va orqa tibiofibular bog'lar (lig.tibiofibulare anterius et posterius), bosh suyakni sug'orcha yuzasi (facies articularis maleoli tibiae), va sug'orcha qobiqasi (capsula articularis) orqali joylashgan.</t>
+  </si>
+  <si>
+    <t>L:IXa - isitish elementi dira yordamchi buzilish sug'orchasining (m.flexor carpi ulnaris), radial buzilish sug'orchasining (m.flexor carpi radialis), yuzaki buziluvchi barmoqlar (m.digitorum superfacialis), chuqur buziluvchi barmoqlar boshi (venter m.flexor digitorum profundus) ning radial to'qimasi (tuberositas radii) va medial epikondil (epicondylus medialis), shuningdek pleyokolnar sug'orcha yuzasi (articulatio humeroulnaris) va unga yaqin ulnar bog' (lig. collaterale ulnare), radial bog' (lig.collaterale radiale), intratendinous bursa (bursa intratendinea olecrani), tritseps tendoni (tendo m.triceps brachii), va sug'orcha qobiqasi (capsula articularis) orqali joylashgan.</t>
+  </si>
+  <si>
+    <t>X - isitish elementi boyin qismi beli (C5 - C7) va bu mintaqaga kiritilgan disklar orasidagi simfizislar (symphysis intervertebralis), arcuate sug'orchalar (articulationes zygapophysiales), va ularni egallash uzun va sariq bog'lar (ligg. longitudinales et flava) orqali joylashgan.</t>
+  </si>
+  <si>
+    <t>R:VIIa - isitish elementi golenostop sug'orchasi (articulatio tibiocruralis) ning medial yuzasi va unga yaqin medial (deltoideum) bog' (lig.mediale), tibionavicular bog' (lig.tibionavicularis), old va orqa tibiotalar bog'lar (lig.tibiotalaris anterius et posterius), old va orqa tibiofibular bog'lar (lig.tibiofibulare anterius et posterius), bosh suyakni sug'orcha yuzasi (facies articularis maleoli tibiae), va sug'orcha qobiqasi (capsula articularis) orqali joylashgan.</t>
+  </si>
+  <si>
+    <t>R:IXa - isitish elementi dira yordamchi buzilish sug'orchasining (m.flexor carpi ulnaris), radial buzilish sug'orchasining (m.flexor carpi radialis), yuzaki buziluvchi barmoqlar (m.digitorum superfacialis), chuqur buziluvchi barmoqlar boshi (venter m.flexor digitorum profundus) ning radial to'qimasi (tuberositas radii) va medial epikondil (epicondylus medialis), shuningdek pleyokolnar sug'orcha yuzasi (articulatio humeroulnaris) va unga yaqin ulnar bog' (lig. collaterale ulnare), radial bog' (lig.collaterale radiale), intratendinous bursa (bursa intratendinea olecrani), tritseps tendoni (tendo m.triceps brachii), va sug'orcha qobiqasi (capsula articularis) orqali joylashgan.</t>
+  </si>
+  <si>
+    <t>hintUZ1</t>
+  </si>
+  <si>
+    <t>L:Ib - isitish elementi qo'l uch qismli muskuli (caput longum m.triceps brachii) ning uzun boshini ko'tarish omilining markaziga (tuberculum infraglenoidale angulus lateralis scapule) joylashtirilgan, shuningdek qo'l sug'orcha orqa yuzasi (articulation humeri) va unga tegishli keskin va quyruqo'x ko'kragi bog'lari (lig.transversum scapule, lig.coracohumorale), uch qismli muskul suyagi (caput longum m.triceps brachii), sug'orcha qo'piq (capsula articularis), va subakromial sumka (bursa subacromialis) orqali.</t>
+  </si>
+  <si>
+    <t>L:IIb - isitish elementi muynoq va qo'l sug'orchalarining (articulatio radiocarpea, articulatio radioulnaric distalis) orqali, shuningdek ularni o'rab turadigan orqa muynoq bog'i (lig.radiocarpeum dorsale) va radial va ulnar bog'lar (ligg. collaterale carpi radiale, collaterale carpi ulnare), suyagi ulnar va radial sug'orcha buzishchilar (m.extensor carpi ulnaris, m.extensor carpi radialis), barmoq buzishchi (m.extensor digitorum), sug'orcha qo'piq (capsula articularis), va hamda barmoqlar va kichik barmoq suyagi yostiqchalarining (vagina tendinum mm.extensor digitorum et extensoris indicis), radial qo'l suyagi (vagina tendium mm. extensorum carpi radialium), ulnar qo'l suyagi (vagina tendinis mm. extensoris carpi ulnaris), erkin barmoq suyagi (vagina tendinis m.extensoris policis longi) orqali.</t>
+  </si>
+  <si>
+    <t>L:III - isitish elementi ikki qismli katta dada muskuli (mm.pectoralis major) ning markaziga qo'yilgan, shuningdek u sternoklavikulyar sug'orcha (articulatio sternoclavicularis) va unga yaqin sternoklavikulyar, tomon klavikulyar va oraliq klavikulyar bog'lar (lig.sternoclaviculare, lig.costaclaviculare, lig.interclaviculare), va sug'orcha qo'piq (capsula articularis) orqali.</t>
+  </si>
+  <si>
+    <t>R:VIIb - isitish elementi joylashgan joyi old tibia chiziqsi oldi (m.tibialis anterior) va uzoq barmoq chiziqchasi (m.extensor digitorum longus) tendoniga o'tish joyi, shuningdek, oyoq bosh suyuji (articulatio tibiocruralis) yon tomoni va unga yaqinlashgan old tibia va kichik tibia bog'langan suyuq (lig.tibiofibulare anterius et posterius), old va orqa talus-kichik tibia bog'langan suyuq (lig.taliofiulare anterius et posterius), piyocha-kichik tibia bog'langan suyuq (lig.calcaneofibulare), suyuq qobiq yuzasi (facies articularis maleoli fibilae), suyuq qobiqasi (capsula articularis) bo'ladi.</t>
+  </si>
+  <si>
+    <t>R:Ib - isitish elementi uzoq timsol oyoq bosh bugini (caput longum m.triceps brachii) chuchuk yo'lg'onib o'rganish bugoriga (tuberculum infraglenoidale angulus lateralis scapule) orqasida joylashgan, shuningdek oyoq bosh suyuqi orqasida (articulation humeri) va unga yaqinlashgan chuchuk yon oyoq bosh va talon oyoq bosh bog'lanish suyuq (lig.transversum scapule, lig.coracohumorale), uzoq timsol oyoq bosh bugini tendon (caput longum m.triceps brachii), suyuq qobiqasi (capsula articularis), va subakromial sumka (bursa subacromialis).</t>
+  </si>
+  <si>
+    <t>R:IIb - isitish elementi luchezapyastnoy suyuqning orqasida (articulatio radiocarpea) va distal lucheloktevoy suyuq (articulatio radioulnaric distalis) orqasida joylashgan, va unga yaqinlashgan orqa luchezapyastnoy bog'lanish suyuq (lig.radiocarpeum dorsale) va kolateral radial va ulnar zapast bog'lanish suyuq (ligg. collaterale carpi radiale, collaterale carpi ulnare), extensor carpi ulnaris tendonlari, extensor carpi radialis, extensor digitorum, suyuq qobiqalari (capsula articularis), va shuningdek barmoq va pinka chiziqchalarining tendon qobiqalari (vagina tendinum mm.extensor digitorum et extensoris indicis), radial tendon qobiqasi (vagina tendium mm. extensorum carpi radialium), ulnar tendon qobiqasi (vagina tendinis mm. extensoris carpi ulnaris), va uzun barmoq chiziqchasi tendon qobiqasi (vagina tendinis m.extensoris policis longi).</t>
+  </si>
+  <si>
+    <t>R:Vb - isitish elementi yuqori timsol oyoq bosh chiziqsining (caput longum m.biceps femori), yarim-tendon chiziqsining (m.semitendinosus), yarim-membrana chiziqsining (m.semimembranosus), katta olib boradigan chiziqsining (m.abductor magnus) olib boradigan buginiga (tuberculum adductorium) o'tishiga yaqin joylashgan, va shuningdek tizim suyuqining orqasida (articulatio genus) va unga yaqinlashgan mayda tizim bog'lanish suyuq (lig. popliteum obliquum), duga tizim bog'lanish suyuq (lig.popliteum arcuatum), chuchuk tizim bog'lanish suyuq (ligg.cruata genus), tizimni bo'ylab bog'lanish suyuq (lig.transversum genus), meniskoga o'xshaydigan bog'lanish suyuq (ligg.meniscofemorale anterius et posterius), menisk (meniscus medialis et lateralis), yarim-membrana sumka (bursa semimembranosus), quyi yarim-tendon sumka timsol oyoq boshi (bursa subtendinea m.bicipitis femoris inferior), suyuq qobiqasi (capsula articularis).</t>
+  </si>
+  <si>
+    <t>R:IXb - isitish elementi loktevoy to'g'rilovchi chiziqchasi (m.extensor carpi ulnaris), radial to'g'rilovchi chiziqchasi (m.extensor carpi radialis), barmoq to'g'rilovchi chiziqchasi (m.extensor digitorum) loktev qoq suyog'ining loktev chuchug'iga (olecranon ulnaris) va lateral nadmishchakka (epicondylus lateralis) ulanish joyida joylashgan, shuningdek oyoq bosh-loktev suyuqqa (articulatio humeroulnaris) va ular bilan yaqinlashgan loktev kolleteral bog'lanish suyuq (lig. collaterale ulnare), radial kolleteral bog'lanish suyuq (lig.collaterale radiale), loktev ichki-tendon sumka (bursa intratendinea olecrani), va suyuq qobiqalari (capsula articularis).</t>
+  </si>
+  <si>
+    <t>XI - isitish elementi bo'yin qism pozvonkasining (Th1 - Th3) va shu hududdagi pozvonlararo simfizlarga (symphysis intervertebtralis), duqo chuchuk suyuqqa (articulationes zygapophysiales), va ular bilan yaqinlashgan uzun, sariq bog'lanish suyuq (ligg. longitudinales et flava) orqasida joylashgan.</t>
+  </si>
+  <si>
+    <t>L:Vb - isitish elementi yuqori so'kam yuza boshlangan bosh uchli yurak yumshaqichasi (caput longum m.biceps femori), yarim-tendon yumshaqichasi (m.semitendinosus), yarim-membranos yumshaqichasi (m.semimembranosus), katta qo'shish yumshaqichasi (m.abductor magnus) tuberculum adductorium yurak tuyagini ulash joyida joylashgan. Shuningdek, tizoq suyuqning orqa yuzasi (articulatio genus) va ular bilan yaqinlashgan egri popliteal bog'lanish (lig. popliteum obliquum), qo'rg'oshin popliteal bog'lanish (lig.popliteum arcuatum), tizoqning xilma-xil bog'lanishi (ligg.cruata genus), tizoqning to'g'risi bog'lanish (lig.transversum genus), menisko-femoral bog'lanish (ligg.meniscofemorale anterius et posterius), meniskolar (meniscus medialis et lateralis), yarim-membranos sumka (bursa semimembranosus), pastki yurak ikki-boshli yumshaqichasi sumkasi (bursa subtendinea m.bicipitis femoris inferior), va suyuq qo'piqasi (capsula articularis).</t>
+  </si>
+  <si>
+    <t>L:VIIb - isitish elementining joylashtirilish joyi tashqi qismidan oldingi katta shankar yumshaqichasi (m.tibialis anterior) va uzun to'g'rilovchi barmoq yumshaqichasi (m.extensor digitorum longus) tendoniga o'tkazilgan. Shuningdek, bosh suyuqning tomon yuzasi (articulatio tibiocruralis) va ular bilan yaqinlashgan oldingi va orqa shankar-kichkina bog'lanish (lig.tibiofibulare anterius et posterius), oldingi va orqa tarsal-kichkina bog'lanish (lig.taliofiulare anterius et posterius), piyozak-kichkina bog'lanish (lig.calcaneofibulare), suyuq yuzasi kulochka (facies articularis maleoli fibilae), va suyuq qo'piqasi (capsula articularis).</t>
+  </si>
+  <si>
+    <t>L:IXb - isitish elementi loktevoy to'g'rilovchi chiziqchasi (m.extensor carpi ulnaris), radial to'g'rilovchi chiziqchasi (m.extensor carpi radialis), barmoq to'g'rilovchi chiziqchasi (m.extensor digitorum) loktev qoq suyog'ining loktev chuchug'iga (olecranon ulnaris) va lateral nadmishchakka (epicondylus lateralis) ulanish joyida joylashgan. Shuningdek, oyoq bosh-loktev suyuq (articulatio humeroulnaris) va ular bilan yaqinlashgan loktev kolleteral bog'lanish (lig. collaterale ulnare), radial kolleteral bog'lanish (lig.collaterale radiale), loktev ichki-tendon sumka (bursa intratendinea olecrani), va suyuq qobiqalari (capsula articularis).</t>
+  </si>
+  <si>
+    <t>hintUZ2</t>
+  </si>
+  <si>
+    <t>L:VI - isitish elementi tibialis anterior (m.tibialis anterior) va uzun burjchakni kengaytiruvchi (m.extensor digitorum longus) tibial suyagini medial chukuriga (condylus medialis) yaqin joylashgan. Shuningdek, tizzaning pastki yuzasi (articulatio genus) va uga yaqin bo'lgan quadriceps femorisning tendonlari (tendo m.quadriceps femoris) patella pastida, tibiofibularis bog'langani (articulatio tibiofibularis), fibula boshining bog'langanligi (ligg.capitis fibulae anterius et posterius), tibialis anteriorning tendonlari (m.tibialis anterior), uzun burjchakni kengaytiruvchi (m.extensor digitorum longus), uzun bolalar burjchakni kengaytiruvchi (m.extensor hallucis longus), suyuqning kapsulasi (capsula articularis), patellaning chuqur sumkasi (bursa infrapatellaris profunda) orasida.</t>
+  </si>
+  <si>
+    <t>XII - isitish elementi boy bo'lagi bel kemasi (Th4 - Th7) va bu zonaga kiruvchi bog'liq sug'orishlar (symphysis intervertebtralis), bunaqdor bo'lgan jipsli bog'langanlar (articulationes zygapophysiales), va ularga yaqin bo'lgan uzun, sariq bog'langanlar (ligg. longitudinales et flava) orasida joylashgan.</t>
+  </si>
+  <si>
+    <t>R: VI - issiqlik elementi avvalgi tibialis kasalligi (m.tibialis anterior) va barmoq uzun tarkibiy muskulining (m.extensor digitorum longus) o'rtacha bog'lanish nuqtasining yuqoriga joylashgan. Shuningdek, ko'kning pastki yuzi (articulatio genus) va patellaning ostiga, ichkidan yana, quadriceps femorisning tendonlarining (tendo m.quadriceps femoris) pastida, tibiofibularis bog'langani (articulatio tibiofibularis), fibula boshining bog'langanligi (ligg.capitis fibulae anterius va posterius), tibialis anteriordan kasalligi muskulining tendonlari (m.tibialis anterior), barmoq uzun tarkibiy muskulining uzunligi (m.extensor digitorum longus), uzun qo'l barmoq uzun tarkibiy muskulining (m.extensor hallucis longus), o'rtacha bag'riq kapsulasi (capsula articularis), patella yirik bag'riqi (bursa infrapatellaris profunda) ostida joylashgan.</t>
+  </si>
+  <si>
+    <t>hintUZ3</t>
+  </si>
+  <si>
+    <t>XIII - issiqlik elementi boyni bo'lagining (Th8 - L11) ustida joylashgan va ushbu zonaga kiradigan intervertebral simfizlardan (symphysis intervertebtralis), daryocha artikulyatsiyalardan (articulationes zygapophysiales) va ularga oid uzun, sariq bog'lar (ligg. longitudinales et flava) bilan birga joylashgan.</t>
+  </si>
+  <si>
+    <t>hintUZ4</t>
+  </si>
+  <si>
+    <t>XIV - issiqlik elementi boyni bo'lagining (L1 - L5) ustida joylashgan va ushbu zonaga kiradigan intervertebral simfizlardan (symphysis intervertebtralis), daryocha artikulyatsiyalardan (articulationes zygapophysiales) va ularga oid uzun, sariq bog'lar (ligg. longitudinales et flava) bilan birga joylashgan.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1156,16 +1264,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,85 +1294,100 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AJ1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1276,32 +1403,38 @@
       <c r="E2" t="s">
         <v>90</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2">
         <v>580</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>270</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>171</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>179</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>89</v>
       </c>
-      <c r="L2">
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2">
         <v>330</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1317,32 +1450,38 @@
       <c r="E3" t="s">
         <v>92</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3">
         <v>580</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>270</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>366</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>177</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>91</v>
       </c>
-      <c r="L3">
+      <c r="M3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3">
         <v>330</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1358,32 +1497,38 @@
       <c r="E4" t="s">
         <v>86</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4">
         <v>580</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>270</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>143</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>418</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>85</v>
       </c>
-      <c r="L4">
+      <c r="M4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4">
         <v>330</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1399,32 +1544,38 @@
       <c r="E5" t="s">
         <v>88</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5">
         <v>580</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>270</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>404</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>418</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="L5">
+      <c r="M5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5">
         <v>330</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1440,32 +1591,38 @@
       <c r="E6" t="s">
         <v>83</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6">
         <v>580</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>300</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>709</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>190</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>84</v>
       </c>
-      <c r="L6">
+      <c r="M6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6">
         <v>580</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1481,14 +1638,17 @@
       <c r="E7" t="s">
         <v>82</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7">
         <v>330</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>610</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1504,14 +1664,17 @@
       <c r="E8" t="s">
         <v>81</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8">
         <v>330</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>610</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1527,50 +1690,59 @@
       <c r="E9" t="s">
         <v>77</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9">
         <v>580</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>450</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>221</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>614</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>44</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>76</v>
       </c>
-      <c r="L9">
+      <c r="M9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9">
         <v>330</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>450</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>729</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>689</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>75</v>
       </c>
-      <c r="R9">
+      <c r="T9" t="s">
+        <v>122</v>
+      </c>
+      <c r="U9">
         <v>580</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1586,50 +1758,59 @@
       <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10">
         <v>580</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>450</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>323</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>611</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>47</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>79</v>
       </c>
-      <c r="L10">
+      <c r="M10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10">
         <v>330</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>450</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>629</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>690</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>78</v>
       </c>
-      <c r="R10">
+      <c r="T10" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10">
         <v>580</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1645,32 +1826,38 @@
       <c r="E11" t="s">
         <v>72</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11">
         <v>580</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>700</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>219</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>855</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>50</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>71</v>
       </c>
-      <c r="L11">
+      <c r="M11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11">
         <v>330</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1686,32 +1873,38 @@
       <c r="E12" t="s">
         <v>74</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12">
         <v>580</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>700</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>325</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>855</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>52</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>73</v>
       </c>
-      <c r="L12">
+      <c r="M12" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12">
         <v>330</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1727,32 +1920,38 @@
       <c r="E13" t="s">
         <v>68</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13">
         <v>580</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>500</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>153</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>306</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>54</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>67</v>
       </c>
-      <c r="L13">
+      <c r="M13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13">
         <v>330</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1768,32 +1967,38 @@
       <c r="E14" t="s">
         <v>70</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14">
         <v>580</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>500</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>390</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>305</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>56</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>69</v>
       </c>
-      <c r="L14">
+      <c r="M14" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14">
         <v>330</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1809,87 +2014,102 @@
       <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15">
         <v>330</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>210</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>268</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>211</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>58</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>65</v>
       </c>
-      <c r="L15">
+      <c r="M15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15">
         <v>330</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>270</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>269</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>273</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>59</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>64</v>
       </c>
-      <c r="R15">
+      <c r="T15" t="s">
+        <v>123</v>
+      </c>
+      <c r="U15">
         <v>330</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>330</v>
       </c>
-      <c r="T15">
+      <c r="W15">
         <v>270</v>
       </c>
-      <c r="U15">
+      <c r="X15">
         <v>331</v>
       </c>
-      <c r="V15" t="s">
+      <c r="Y15" t="s">
         <v>60</v>
       </c>
-      <c r="W15" t="s">
+      <c r="Z15" t="s">
         <v>63</v>
       </c>
-      <c r="X15">
+      <c r="AA15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB15">
         <v>330</v>
       </c>
-      <c r="Y15">
+      <c r="AC15">
         <v>390</v>
       </c>
-      <c r="Z15">
+      <c r="AD15">
         <v>271</v>
       </c>
-      <c r="AA15">
+      <c r="AE15">
         <v>387</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AF15" t="s">
         <v>61</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AG15" t="s">
         <v>62</v>
       </c>
-      <c r="AD15">
+      <c r="AH15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI15">
         <v>330</v>
       </c>
-      <c r="AE15">
+      <c r="AJ15">
         <v>450</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>